--- a/Risikoklassen.xlsx
+++ b/Risikoklassen.xlsx
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
-  <si>
-    <t>Ser hoch</t>
-  </si>
-  <si>
-    <t>hoch</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>Mittel</t>
   </si>
@@ -86,9 +80,6 @@
     <t>Eher wahrscheinlich</t>
   </si>
   <si>
-    <t>wahrscheinlich</t>
-  </si>
-  <si>
     <t>Sehr wahrscheinlich</t>
   </si>
   <si>
@@ -105,6 +96,102 @@
   </si>
   <si>
     <t>Bestellungen werden falsch verarbeitet</t>
+  </si>
+  <si>
+    <t>Risikoart</t>
+  </si>
+  <si>
+    <t>Erklärung</t>
+  </si>
+  <si>
+    <t>Fachlich / Inhärent / Wesentlich</t>
+  </si>
+  <si>
+    <t>IT-Risiko: vollständiger Systemhack des Systems</t>
+  </si>
+  <si>
+    <t>Durch die Vermarktung über eine App, besteht immer ein Risiko eines Hacks. Wenn ein solcher Hack erfolgreich das gesamte System lahmlegen kann, dann ist die gesamte Zukunft des Unternehmens gefährdet.</t>
+  </si>
+  <si>
+    <t>Inhärent / Fachlich</t>
+  </si>
+  <si>
+    <t>Verletzt die Privatsphäre der Kunden. Wenn dies an die Öffentlichkeit gerät, dann haben Kunden nicht nur Anrecht auf Schadensersatz, sondern werden auch das Vertrauen in das Unternehmen verlieren. Des Weiteren gefährden wir auch unsere Kooperationspartner und die Beziehung zu diesen.</t>
+  </si>
+  <si>
+    <t>IT-Risiko: Serverausfall</t>
+  </si>
+  <si>
+    <t>IT-Risiko: Unstimmigkeiten reale Sachverhalte und Umsetzung in der Applikation</t>
+  </si>
+  <si>
+    <t>Inhärent / Fachlich / Wesentlich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stoppt die Geschäftsfähigkeit im Augenblick des Eintritts. Laufende Bestellungen und Aufträge könnten fehlerhaft abgewickelt werden und großen finanziellen Schaden zur Folge haben. </t>
+  </si>
+  <si>
+    <t>IT-Risiko: Abhören von vertraulichen Daten</t>
+  </si>
+  <si>
+    <t>Kann durch den Faktor Mensch oder durch technische Fehler auftreten. In der Regel sollte man in der Lage sein Fehler dieser Art durch Gegenmaßnahmen zu beheben, kostet jedoch Zeit und eventuell auch Geld.</t>
+  </si>
+  <si>
+    <t>Allgemeines Verkehrsrisiko bei der Lieferung</t>
+  </si>
+  <si>
+    <t>Inhärent</t>
+  </si>
+  <si>
+    <t>Zerstörung der Ware durch Kunden</t>
+  </si>
+  <si>
+    <t>Ein externes Risiko, da Mitarbeiter nur beim Liefern und Aufbauen vor Ort sind und so nicht durchgehend kontrollieren können, ob ordnungsgemäß mit der Ware umgegangen wird. Kann durch Anleitung und Vorgaben eingeschränkt werden.</t>
+  </si>
+  <si>
+    <t>Produktionsfehler</t>
+  </si>
+  <si>
+    <t>Compliance Risiko / Kontrollrisiko / Restrisiko</t>
+  </si>
+  <si>
+    <t>Insolvenzrisiko</t>
+  </si>
+  <si>
+    <t>Compliance Risiko / Fachlich</t>
+  </si>
+  <si>
+    <t>Externes Risiko, bei welchem die Kooperationspartner die Ware falsch liefern, oder in der Produktion fehler auftreten.</t>
+  </si>
+  <si>
+    <t>Wesentlich</t>
+  </si>
+  <si>
+    <t>Risiko eines nicht rentabelen Geschäftes, führt zum erlischen der Geschäftsfähigkeit.</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Personlamangelrisiko</t>
+  </si>
+  <si>
+    <t>Liefergeschäft stellt oft Nebenjobs dar, was viele Absprünge von Mitarbeitern zur Folge haben kann. Oft findet man aber auch schnell und einfach neues Personal.</t>
+  </si>
+  <si>
+    <t>Im Liefergeschäft führt kein Weg daran vorbei sich dem Risiko des Straßenverkehrs auszusetzen. Wird hauptsächlich durch den Faktor Mensch beeinflusst und kann große finanzielle Schäden mit sich bringen, ist aber meistens nicht wesentlich.</t>
+  </si>
+  <si>
+    <t>Sehr hoch</t>
+  </si>
+  <si>
+    <t>Hoch</t>
+  </si>
+  <si>
+    <t>Wahrscheinlich</t>
+  </si>
+  <si>
+    <t>B,C</t>
   </si>
 </sst>
 </file>
@@ -158,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -195,8 +282,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -211,14 +300,14 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -232,56 +321,103 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -314,22 +450,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -341,13 +465,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -656,7 +807,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -664,195 +815,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I24"/>
+  <dimension ref="A3:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" customWidth="1"/>
     <col min="5" max="5" width="14.77734375" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
     <col min="9" max="9" width="55.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="54.6640625" customWidth="1"/>
+    <col min="11" max="11" width="79.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="4"/>
       <c r="H4" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="40.200000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" ht="59.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="C7" s="8" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
+      <c r="D8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="F8" s="11"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="13" t="s">
+      <c r="H8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="4"/>
+      <c r="H10" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="4"/>
-      <c r="H10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="20"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H15" s="15"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="20"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
@@ -890,7 +1129,46 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
+    <row r="41" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I41" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I42" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I43" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I44" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I45" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I46" s="14"/>
+    </row>
+    <row r="47" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I47" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I48" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Risikoklassen.xlsx
+++ b/Risikoklassen.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
   <si>
     <t>Mittel</t>
   </si>
@@ -47,24 +47,12 @@
     <t>D</t>
   </si>
   <si>
-    <t>Verkehrsunfälle bei der Lieferung</t>
-  </si>
-  <si>
     <t>Bezeichnung</t>
   </si>
   <si>
     <t>Risiko</t>
   </si>
   <si>
-    <t>Feuergefahr beim erhitzen der Kohle im Auto</t>
-  </si>
-  <si>
-    <t>IT-Sicherheit ist zu schwach</t>
-  </si>
-  <si>
-    <t>Kunde zerstört Shisha - Verhältnis: Shishabar - Lieferdienst - Kunde</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -83,21 +71,12 @@
     <t>Sehr wahrscheinlich</t>
   </si>
   <si>
-    <t>Shisha wird falsch aufgebaut und führt so zu Schaden</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
-    <t>Kaufabwickelung geht über App verloren</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
-    <t>Bestellungen werden falsch verarbeitet</t>
-  </si>
-  <si>
     <t>Risikoart</t>
   </si>
   <si>
@@ -146,9 +125,6 @@
     <t>Zerstörung der Ware durch Kunden</t>
   </si>
   <si>
-    <t>Ein externes Risiko, da Mitarbeiter nur beim Liefern und Aufbauen vor Ort sind und so nicht durchgehend kontrollieren können, ob ordnungsgemäß mit der Ware umgegangen wird. Kann durch Anleitung und Vorgaben eingeschränkt werden.</t>
-  </si>
-  <si>
     <t>Produktionsfehler</t>
   </si>
   <si>
@@ -192,6 +168,63 @@
   </si>
   <si>
     <t>B,C</t>
+  </si>
+  <si>
+    <t>Mitigationstrategie</t>
+  </si>
+  <si>
+    <t>Lieferantenpersonal gewählt wählen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ein externes Risiko, da Mitarbeiter nur beim Liefern und Aufbauen vor Ort sind und so nicht durchgehend kontrollieren können, ob ordnungsgemäß mit der Ware umgegangen wird. </t>
+  </si>
+  <si>
+    <t>Aufklärung der korrekten Benutzung und Vorgaben der Nutzung. Versicherung der Ware mit Haftung der Kunden.</t>
+  </si>
+  <si>
+    <t>Enge Zusammenarbeit mit den Produzenten und frühzeitige Prüfung der Ware.</t>
+  </si>
+  <si>
+    <t>Bestätigung der Korrektheit durch Nutzer. Fortlaufende Tests der Software.</t>
+  </si>
+  <si>
+    <t>Backup-Server für kurzfristige Ausweichverkehr.</t>
+  </si>
+  <si>
+    <t>Verschlüsseln sämtlichen Datenverkehrs intern und extern.</t>
+  </si>
+  <si>
+    <t>Angebot Teilzeitjobs oder Aushilfsjobs. Erschaffen eines angenehmen Arbeitsumfelds.</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Geringe Nutzung / Imitate</t>
+  </si>
+  <si>
+    <t>Nach Veröffentlichung werden viele weitere Apps veröffentlicht, welche im  Grunde genau das können, was wir ebenfalls können. Eventuell von bereits etablierten Marken. Kunden könnten diese bevorzugen.</t>
+  </si>
+  <si>
+    <t>Patent / Vertrag mit Kooperationspartner, welche die Arbeit mit weiteren Lieferdiensten oder Unternehemen dieser Art ausschließt.</t>
+  </si>
+  <si>
+    <t>Verbesserung der IT-Sicherheit, gegebenenfalls durch Outsourcing an darauf spezialisierte Unternehemen.</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Kapitalbeschaffung</t>
+  </si>
+  <si>
+    <t>Es kann kein Grundkapital aufgebaut werden und das Unternehmen geht pleite,  bevor es sich überhaupt etwas entwickeln konnte.</t>
+  </si>
+  <si>
+    <t>Shisha-Bars. welche mit uns kooperieren wollen müssen einen einmaligen Einbindungsbeitrag zahlen.</t>
+  </si>
+  <si>
+    <t>Starkes Grundkapital.</t>
   </si>
 </sst>
 </file>
@@ -269,30 +302,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -409,6 +418,36 @@
       </right>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -417,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -441,21 +480,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -465,41 +489,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -807,7 +853,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -815,86 +861,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L48"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
     <col min="9" max="9" width="55.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="54.6640625" customWidth="1"/>
     <col min="11" max="11" width="79.5546875" customWidth="1"/>
+    <col min="12" max="12" width="71.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:12" ht="13.2" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>52</v>
+      <c r="A4" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>24</v>
+      <c r="J4" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="59.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>53</v>
+      <c r="A5" s="31" t="s">
+        <v>45</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="F5" s="6"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="4"/>
+      <c r="I5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="8"/>
@@ -902,196 +959,242 @@
       <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="F6" s="6"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="4"/>
+      <c r="I6" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30"/>
+      <c r="B9" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="4"/>
+      <c r="K9" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G10" s="4"/>
-      <c r="H10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="4"/>
+      <c r="H10" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="4"/>
+      <c r="H11" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H12" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="28" t="s">
-        <v>38</v>
+      <c r="H13" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H14" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16"/>
+      <c r="H15" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="16"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
@@ -1130,45 +1233,34 @@
       <c r="C24" s="1"/>
     </row>
     <row r="41" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I41" s="14" t="s">
-        <v>7</v>
-      </c>
+      <c r="I41" s="9"/>
     </row>
     <row r="42" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I42" s="18" t="s">
-        <v>10</v>
-      </c>
+      <c r="I42" s="12"/>
     </row>
     <row r="43" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I43" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="I43" s="9"/>
     </row>
     <row r="44" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I44" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="I44" s="9"/>
     </row>
     <row r="45" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I45" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="I45" s="9"/>
     </row>
     <row r="46" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I46" s="14"/>
+      <c r="I46" s="9"/>
     </row>
     <row r="47" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I47" s="14" t="s">
-        <v>21</v>
-      </c>
+      <c r="I47" s="9"/>
     </row>
     <row r="48" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I48" s="14" t="s">
-        <v>23</v>
-      </c>
+      <c r="I48" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="7" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
--- a/Risikoklassen.xlsx
+++ b/Risikoklassen.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KREMPELS\Documents\Semester_3\Neuer Ordner\SE2_Shisha-At-Home\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC4B5F6-770D-42B9-B5C6-AA2CA6C2EC00}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
   <si>
     <t>Mittel</t>
   </si>
@@ -206,9 +207,6 @@
     <t>Nach Veröffentlichung werden viele weitere Apps veröffentlicht, welche im  Grunde genau das können, was wir ebenfalls können. Eventuell von bereits etablierten Marken. Kunden könnten diese bevorzugen.</t>
   </si>
   <si>
-    <t>Patent / Vertrag mit Kooperationspartner, welche die Arbeit mit weiteren Lieferdiensten oder Unternehemen dieser Art ausschließt.</t>
-  </si>
-  <si>
     <t>Verbesserung der IT-Sicherheit, gegebenenfalls durch Outsourcing an darauf spezialisierte Unternehemen.</t>
   </si>
   <si>
@@ -225,12 +223,21 @@
   </si>
   <si>
     <t>Starkes Grundkapital.</t>
+  </si>
+  <si>
+    <t>Vertrag mit Kooperationspartner, welche die Arbeit mit weiteren Lieferdiensten oder Unternehemen dieser Art ausschließt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Warum würden Sie den einmaligen Betrag zahlen?  </t>
+  </si>
+  <si>
+    <t>Für Shisha-Bars ist dies eine Investition um weiteren Umsatz über unsere Applikation zu generieren, weil Sie potentiell eine höhere Auftragslage erzielen können</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -456,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -546,6 +553,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -853,44 +863,44 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G8" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" customWidth="1"/>
-    <col min="9" max="9" width="55.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="54.6640625" customWidth="1"/>
-    <col min="11" max="11" width="79.5546875" customWidth="1"/>
-    <col min="12" max="12" width="71.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="19.08984375" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" customWidth="1"/>
+    <col min="6" max="6" width="18.08984375" customWidth="1"/>
+    <col min="7" max="7" width="33.36328125" customWidth="1"/>
+    <col min="8" max="8" width="12.08984375" customWidth="1"/>
+    <col min="9" max="9" width="55.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="54.6328125" customWidth="1"/>
+    <col min="11" max="11" width="79.54296875" customWidth="1"/>
+    <col min="12" max="12" width="71.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:12" ht="13.2" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:12" ht="13.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="31" t="s">
         <v>44</v>
       </c>
@@ -920,7 +930,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="59.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="59.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
         <v>45</v>
       </c>
@@ -930,7 +940,7 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="4"/>
@@ -947,10 +957,10 @@
         <v>21</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="31" t="s">
         <v>0</v>
       </c>
@@ -980,7 +990,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="31" t="s">
         <v>1</v>
       </c>
@@ -1010,7 +1020,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
         <v>2</v>
       </c>
@@ -1040,7 +1050,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="30"/>
       <c r="B9" s="26" t="s">
         <v>11</v>
@@ -1074,7 +1084,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G10" s="4"/>
       <c r="H10" s="28" t="s">
         <v>10</v>
@@ -1092,7 +1102,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="G11" s="4"/>
@@ -1112,7 +1122,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="G12" s="2"/>
@@ -1129,10 +1139,10 @@
         <v>39</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="G13" s="2"/>
@@ -1152,7 +1162,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="H14" s="28" t="s">
@@ -1168,92 +1178,98 @@
         <v>59</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="H15" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="23" t="s">
         <v>62</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>63</v>
       </c>
       <c r="J15" s="23" t="s">
         <v>38</v>
       </c>
       <c r="K15" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="L15" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="H16" s="10"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L17" s="32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L18" s="32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I41" s="9"/>
     </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I42" s="12"/>
     </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I43" s="9"/>
     </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I44" s="9"/>
     </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I45" s="9"/>
     </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I46" s="9"/>
     </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I47" s="9"/>
     </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I48" s="9"/>
     </row>
   </sheetData>
